--- a/frontend/web/runtime/export/grid-export.xlsx
+++ b/frontend/web/runtime/export/grid-export.xlsx
@@ -9,50 +9,15 @@
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Worksheet'!$A$1:$G$2</definedName>
-  </definedNames>
+  <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1">
   <si>
-    <t>#</t>
-  </si>
-  <si>
-    <t>ชื่อ</t>
-  </si>
-  <si>
-    <t>นามสกุล</t>
-  </si>
-  <si>
-    <t>รหัส</t>
-  </si>
-  <si>
-    <t>เบอร์โทรศัพท์</t>
-  </si>
-  <si>
-    <t>วันเกิด</t>
-  </si>
-  <si>
-    <t>จำนวนที่เข้าร่วมกิจกรรม</t>
-  </si>
-  <si>
-    <t>&lt;td&gt;1&lt;/td&gt;</t>
-  </si>
-  <si>
-    <t>พระชยกร</t>
-  </si>
-  <si>
-    <t>ขนฺติโก</t>
-  </si>
-  <si>
-    <t>0846336457</t>
-  </si>
-  <si>
-    <t>1989-11-06</t>
+    <t>ไม่พบผลลัพธ์</t>
   </si>
 </sst>
 </file>
@@ -60,7 +25,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -70,17 +35,8 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
-    <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -90,16 +46,6 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
-    <fill>
-      <gradientFill type="linear" degree="0">
-        <stop position="0">
-          <color rgb="FFA0A0A0"/>
-        </stop>
-        <stop position="1">
-          <color rgb="FFFFFFFF"/>
-        </stop>
-      </gradientFill>
-    </fill>
   </fills>
   <borders count="1">
     <border/>
@@ -107,11 +53,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -410,76 +353,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="9.283447" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="9.283447" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="9.283447" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="16.424561" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="28.135986" bestFit="true" customWidth="true" style="0"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2">
-        <v>6000001</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <autoFilter ref="A1:G2"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>

--- a/frontend/web/runtime/export/grid-export.xlsx
+++ b/frontend/web/runtime/export/grid-export.xlsx
@@ -9,15 +9,686 @@
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Worksheet'!$A$1:$F$73</definedName>
+  </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1">
-  <si>
-    <t>ไม่พบผลลัพธ์</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="224">
+  <si>
+    <t>ชื่อ</t>
+  </si>
+  <si>
+    <t>นามสกุล</t>
+  </si>
+  <si>
+    <t>รหัส</t>
+  </si>
+  <si>
+    <t>เบอร์โทรศัพท์</t>
+  </si>
+  <si>
+    <t>วันเกิด</t>
+  </si>
+  <si>
+    <t>จำนวนที่เข้าร่วมกิจกรรม</t>
+  </si>
+  <si>
+    <t>จำปา</t>
+  </si>
+  <si>
+    <t>นาคำ</t>
+  </si>
+  <si>
+    <t>0869806068</t>
+  </si>
+  <si>
+    <t>2500-01-01</t>
+  </si>
+  <si>
+    <t>ฐิติมา</t>
+  </si>
+  <si>
+    <t>0868246769</t>
+  </si>
+  <si>
+    <t>2500-10-03</t>
+  </si>
+  <si>
+    <t>ธนพัฒ</t>
+  </si>
+  <si>
+    <t>2500-10-01</t>
+  </si>
+  <si>
+    <t>อัญชิสา</t>
+  </si>
+  <si>
+    <t>อมตเวทย์</t>
+  </si>
+  <si>
+    <t>0943151475</t>
+  </si>
+  <si>
+    <t>1966-12-02</t>
+  </si>
+  <si>
+    <t>ปฏิภาณ</t>
+  </si>
+  <si>
+    <t>จันทร์ธร</t>
+  </si>
+  <si>
+    <t>0987930635</t>
+  </si>
+  <si>
+    <t>2004-08-09</t>
+  </si>
+  <si>
+    <t>บุญเรือน</t>
+  </si>
+  <si>
+    <t>ปริรัตน์</t>
+  </si>
+  <si>
+    <t>0852484821</t>
+  </si>
+  <si>
+    <t>1966-08-25</t>
+  </si>
+  <si>
+    <t>ธนภัทร</t>
+  </si>
+  <si>
+    <t>นภัสนันท์</t>
+  </si>
+  <si>
+    <t>ชยันต์ธนาอชิต</t>
+  </si>
+  <si>
+    <t>0894261565</t>
+  </si>
+  <si>
+    <t>1984-05-08</t>
+  </si>
+  <si>
+    <t>ภัทรา</t>
+  </si>
+  <si>
+    <t>บัวทอง</t>
+  </si>
+  <si>
+    <t>1978-05-08</t>
+  </si>
+  <si>
+    <t>ราวรรณ์</t>
+  </si>
+  <si>
+    <t>วงศ์ธัมมา</t>
+  </si>
+  <si>
+    <t>0996127486</t>
+  </si>
+  <si>
+    <t>2500-10-14</t>
+  </si>
+  <si>
+    <t>พิมพ์พลอย</t>
+  </si>
+  <si>
+    <t>วงศ์ธรรมา</t>
+  </si>
+  <si>
+    <t>2500-02-14</t>
+  </si>
+  <si>
+    <t>กานต์</t>
+  </si>
+  <si>
+    <t>สุขาจารย์</t>
+  </si>
+  <si>
+    <t>0923628932</t>
+  </si>
+  <si>
+    <t>ปิ่นมุข</t>
+  </si>
+  <si>
+    <t>กนินฐ์</t>
+  </si>
+  <si>
+    <t>ขวัญเกล้า</t>
+  </si>
+  <si>
+    <t>ศิริวิเศษ</t>
+  </si>
+  <si>
+    <t>0855655963</t>
+  </si>
+  <si>
+    <t>1985-06-04</t>
+  </si>
+  <si>
+    <t>ภควัต</t>
+  </si>
+  <si>
+    <t>0647722125</t>
+  </si>
+  <si>
+    <t>2006-08-22</t>
+  </si>
+  <si>
+    <t>พรทิพย์</t>
+  </si>
+  <si>
+    <t>0962971495</t>
+  </si>
+  <si>
+    <t>1962-03-05</t>
+  </si>
+  <si>
+    <t>วรรณา</t>
+  </si>
+  <si>
+    <t>แซ่โค้ว</t>
+  </si>
+  <si>
+    <t>ทิพ</t>
+  </si>
+  <si>
+    <t>ชิตญาติ</t>
+  </si>
+  <si>
+    <t>0863160052</t>
+  </si>
+  <si>
+    <t>1965-02-09</t>
+  </si>
+  <si>
+    <t>กมลพร</t>
+  </si>
+  <si>
+    <t>มิตรอุดมชาติ</t>
+  </si>
+  <si>
+    <t>029772924</t>
+  </si>
+  <si>
+    <t>1946-09-07</t>
+  </si>
+  <si>
+    <t>ไวภพ</t>
+  </si>
+  <si>
+    <t>0944856842</t>
+  </si>
+  <si>
+    <t>1943-08-18</t>
+  </si>
+  <si>
+    <t>มยุรี</t>
+  </si>
+  <si>
+    <t>นันทะแสง</t>
+  </si>
+  <si>
+    <t>0815537938</t>
+  </si>
+  <si>
+    <t>1953-01-05</t>
+  </si>
+  <si>
+    <t>ศิริพร</t>
+  </si>
+  <si>
+    <t>ชุ่มน้อย</t>
+  </si>
+  <si>
+    <t>0893033402</t>
+  </si>
+  <si>
+    <t>1969-01-29</t>
+  </si>
+  <si>
+    <t>พึงปรารถนา</t>
+  </si>
+  <si>
+    <t>คุสกุล</t>
+  </si>
+  <si>
+    <t>021505015</t>
+  </si>
+  <si>
+    <t>1963-04-08</t>
+  </si>
+  <si>
+    <t>วิไล</t>
+  </si>
+  <si>
+    <t>จันยวงแก้ว</t>
+  </si>
+  <si>
+    <t>0896874682</t>
+  </si>
+  <si>
+    <t>1959-12-29</t>
+  </si>
+  <si>
+    <t>พรพรหม</t>
+  </si>
+  <si>
+    <t>ชุมพร</t>
+  </si>
+  <si>
+    <t>เขม้นกสิกิจ</t>
+  </si>
+  <si>
+    <t>0631380288</t>
+  </si>
+  <si>
+    <t>1955-03-22</t>
+  </si>
+  <si>
+    <t>บุญเสริม</t>
+  </si>
+  <si>
+    <t>ปานปุย</t>
+  </si>
+  <si>
+    <t>0895355077</t>
+  </si>
+  <si>
+    <t>2500-06-09</t>
+  </si>
+  <si>
+    <t>วีรภัทร</t>
+  </si>
+  <si>
+    <t>2006-04-04</t>
+  </si>
+  <si>
+    <t>ทิพวรรณ</t>
+  </si>
+  <si>
+    <t>มีสิทธิ์</t>
+  </si>
+  <si>
+    <t>ลำพึง</t>
+  </si>
+  <si>
+    <t>ศิริเลิศ</t>
+  </si>
+  <si>
+    <t>0917614456</t>
+  </si>
+  <si>
+    <t>1953-10-09</t>
+  </si>
+  <si>
+    <t>ดวงดาว</t>
+  </si>
+  <si>
+    <t>ดาวทอง</t>
+  </si>
+  <si>
+    <t>0879220289</t>
+  </si>
+  <si>
+    <t>1978-04-21</t>
+  </si>
+  <si>
+    <t>วินธยา</t>
+  </si>
+  <si>
+    <t>สุนทรวิภา</t>
+  </si>
+  <si>
+    <t>0637501762</t>
+  </si>
+  <si>
+    <t>1978-12-06</t>
+  </si>
+  <si>
+    <t>พงศกร</t>
+  </si>
+  <si>
+    <t>หงษ์แดง</t>
+  </si>
+  <si>
+    <t>ภคพล</t>
+  </si>
+  <si>
+    <t>สมจิตต</t>
+  </si>
+  <si>
+    <t>สร้อยทอง</t>
+  </si>
+  <si>
+    <t>1980-09-07</t>
+  </si>
+  <si>
+    <t>รัตน์</t>
+  </si>
+  <si>
+    <t>อุเบกจิตร</t>
+  </si>
+  <si>
+    <t>0871468362</t>
+  </si>
+  <si>
+    <t>1961-04-24</t>
+  </si>
+  <si>
+    <t>มณี</t>
+  </si>
+  <si>
+    <t>ช่างคิด</t>
+  </si>
+  <si>
+    <t>0914342145</t>
+  </si>
+  <si>
+    <t>2500-02-27</t>
+  </si>
+  <si>
+    <t>ละมุน</t>
+  </si>
+  <si>
+    <t>จันดี</t>
+  </si>
+  <si>
+    <t>2500-08-03</t>
+  </si>
+  <si>
+    <t>ลำดวน</t>
+  </si>
+  <si>
+    <t>สิงห์โต</t>
+  </si>
+  <si>
+    <t>อ่อนตา</t>
+  </si>
+  <si>
+    <t>มหาสุวรรณ</t>
+  </si>
+  <si>
+    <t>0954154126</t>
+  </si>
+  <si>
+    <t>0000-00-00</t>
+  </si>
+  <si>
+    <t>ภาคิน</t>
+  </si>
+  <si>
+    <t>พริ้งกระโทก</t>
+  </si>
+  <si>
+    <t>2007-12-21</t>
+  </si>
+  <si>
+    <t>อภิรักษ์</t>
+  </si>
+  <si>
+    <t>1977-06-10</t>
+  </si>
+  <si>
+    <t>สุขสมพร</t>
+  </si>
+  <si>
+    <t>สุวัฒนพรกุล</t>
+  </si>
+  <si>
+    <t>0617737929</t>
+  </si>
+  <si>
+    <t>1946-04-06</t>
+  </si>
+  <si>
+    <t>ภาขวัญ</t>
+  </si>
+  <si>
+    <t>กลิ่นศร</t>
+  </si>
+  <si>
+    <t>0945419369</t>
+  </si>
+  <si>
+    <t>1968-10-25</t>
+  </si>
+  <si>
+    <t>ประทีป</t>
+  </si>
+  <si>
+    <t>ถาวิกุล</t>
+  </si>
+  <si>
+    <t>0917099338</t>
+  </si>
+  <si>
+    <t>1980-01-06</t>
+  </si>
+  <si>
+    <t>เหลือ</t>
+  </si>
+  <si>
+    <t>แก้วเหลือง</t>
+  </si>
+  <si>
+    <t>1953-03-12</t>
+  </si>
+  <si>
+    <t>ณัฐนันท์</t>
+  </si>
+  <si>
+    <t>เกิดสมบุญ</t>
+  </si>
+  <si>
+    <t>0820994635</t>
+  </si>
+  <si>
+    <t>สุภาวดี</t>
+  </si>
+  <si>
+    <t>ชูเกียรติ</t>
+  </si>
+  <si>
+    <t>0903256602</t>
+  </si>
+  <si>
+    <t>1965-05-10</t>
+  </si>
+  <si>
+    <t>น้ำผึ้ง</t>
+  </si>
+  <si>
+    <t>1966-04-03</t>
+  </si>
+  <si>
+    <t>ณัฐฐชา</t>
+  </si>
+  <si>
+    <t>เจนเขตกิจ</t>
+  </si>
+  <si>
+    <t>0649811845</t>
+  </si>
+  <si>
+    <t>1946-05-26</t>
+  </si>
+  <si>
+    <t>สหพร</t>
+  </si>
+  <si>
+    <t>ลุประสงค์</t>
+  </si>
+  <si>
+    <t>1973-05-24</t>
+  </si>
+  <si>
+    <t>ณัฐพล</t>
+  </si>
+  <si>
+    <t>น้ำเลี้ยงขัน</t>
+  </si>
+  <si>
+    <t>2015-02-27</t>
+  </si>
+  <si>
+    <t>ธนานาถ</t>
+  </si>
+  <si>
+    <t>แสงสว่าง</t>
+  </si>
+  <si>
+    <t>1981-04-08</t>
+  </si>
+  <si>
+    <t>วารี</t>
+  </si>
+  <si>
+    <t>ตองอ่อน</t>
+  </si>
+  <si>
+    <t>0899905743</t>
+  </si>
+  <si>
+    <t>1954-08-10</t>
+  </si>
+  <si>
+    <t>จรินทรัตน์</t>
+  </si>
+  <si>
+    <t>คำจันทร์</t>
+  </si>
+  <si>
+    <t>0856554534</t>
+  </si>
+  <si>
+    <t>1981-03-13</t>
+  </si>
+  <si>
+    <t>มาลี</t>
+  </si>
+  <si>
+    <t>ศรีทองทิม</t>
+  </si>
+  <si>
+    <t>0868101616</t>
+  </si>
+  <si>
+    <t>1944-01-10</t>
+  </si>
+  <si>
+    <t>ชยพล</t>
+  </si>
+  <si>
+    <t>0885852455</t>
+  </si>
+  <si>
+    <t>1968-04-07</t>
+  </si>
+  <si>
+    <t>รัศมี</t>
+  </si>
+  <si>
+    <t>ทัพวงศ์</t>
+  </si>
+  <si>
+    <t>0824509539</t>
+  </si>
+  <si>
+    <t>1956-10-12</t>
+  </si>
+  <si>
+    <t>พิชญา</t>
+  </si>
+  <si>
+    <t>1985-02-19</t>
+  </si>
+  <si>
+    <t>อัมพร</t>
+  </si>
+  <si>
+    <t>แซ่จาง</t>
+  </si>
+  <si>
+    <t>เปกกี้</t>
+  </si>
+  <si>
+    <t>รัตนาภรณ์</t>
+  </si>
+  <si>
+    <t>แท่งทอง</t>
+  </si>
+  <si>
+    <t>0816498800</t>
+  </si>
+  <si>
+    <t>1980-04-29</t>
+  </si>
+  <si>
+    <t>รดาณัฐ</t>
+  </si>
+  <si>
+    <t>เขมะศิริ</t>
+  </si>
+  <si>
+    <t>2011-03-30</t>
+  </si>
+  <si>
+    <t>ณิดาณัฐ</t>
+  </si>
+  <si>
+    <t>2013-12-06</t>
+  </si>
+  <si>
+    <t>ศรีดาพันธ์</t>
+  </si>
+  <si>
+    <t>วันชัย</t>
+  </si>
+  <si>
+    <t>เสาหงษ์</t>
+  </si>
+  <si>
+    <t>ฐมาภรณ์</t>
+  </si>
+  <si>
+    <t>อภิสนธ์</t>
+  </si>
+  <si>
+    <t>0860616782</t>
+  </si>
+  <si>
+    <t>1968-12-20</t>
+  </si>
+  <si>
+    <t>ป้าจก</t>
+  </si>
+  <si>
+    <t>resr</t>
+  </si>
+  <si>
+    <t>&lt;span class="not-set"&gt;(ไม่ได้ตั้ง)&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>ewae</t>
+  </si>
+  <si>
+    <t>ชยกร</t>
+  </si>
+  <si>
+    <t>ขนฺติโก</t>
+  </si>
+  <si>
+    <t>0846336457</t>
+  </si>
+  <si>
+    <t>1989-11-06</t>
   </si>
 </sst>
 </file>
@@ -25,7 +696,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -35,8 +706,17 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -46,6 +726,16 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <gradientFill type="linear" degree="0">
+        <stop position="0">
+          <color rgb="FFA0A0A0"/>
+        </stop>
+        <stop position="1">
+          <color rgb="FFFFFFFF"/>
+        </stop>
+      </gradientFill>
+    </fill>
   </fills>
   <borders count="1">
     <border/>
@@ -53,8 +743,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -353,24 +1046,1443 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:F73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="16.424561" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="49.416504" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="16.424561" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="28.135986" bestFit="true" customWidth="true" style="0"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>6000002</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>6000003</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>6000004</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5">
+        <v>6000005</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>6000006</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7">
+        <v>6000007</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8">
+        <v>6000008</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9">
+        <v>6000009</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10">
+        <v>60000010</v>
+      </c>
+      <c r="D10"/>
+      <c r="E10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11">
+        <v>60000011</v>
+      </c>
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12">
+        <v>60000012</v>
+      </c>
+      <c r="D12"/>
+      <c r="E12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13">
+        <v>60000013</v>
+      </c>
+      <c r="D13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14">
+        <v>60000014</v>
+      </c>
+      <c r="D14"/>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15">
+        <v>60000015</v>
+      </c>
+      <c r="D15"/>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16">
+        <v>60000016</v>
+      </c>
+      <c r="D16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17">
+        <v>60000017</v>
+      </c>
+      <c r="D17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18">
+        <v>60000018</v>
+      </c>
+      <c r="D18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19">
+        <v>60000019</v>
+      </c>
+      <c r="D19"/>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20">
+        <v>60000020</v>
+      </c>
+      <c r="D20" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21">
+        <v>60000021</v>
+      </c>
+      <c r="D21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22">
+        <v>60000022</v>
+      </c>
+      <c r="D22" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" t="s">
+        <v>69</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23">
+        <v>60000023</v>
+      </c>
+      <c r="D23" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23" t="s">
+        <v>73</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24">
+        <v>60000024</v>
+      </c>
+      <c r="D24" t="s">
+        <v>76</v>
+      </c>
+      <c r="E24" t="s">
+        <v>77</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25">
+        <v>60000025</v>
+      </c>
+      <c r="D25" t="s">
+        <v>80</v>
+      </c>
+      <c r="E25" t="s">
+        <v>81</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26">
+        <v>60000026</v>
+      </c>
+      <c r="D26" t="s">
+        <v>84</v>
+      </c>
+      <c r="E26" t="s">
+        <v>85</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27">
+        <v>60000027</v>
+      </c>
+      <c r="D27"/>
+      <c r="E27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28">
+        <v>60000028</v>
+      </c>
+      <c r="D28" t="s">
+        <v>89</v>
+      </c>
+      <c r="E28" t="s">
+        <v>90</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29">
+        <v>60000029</v>
+      </c>
+      <c r="D29" t="s">
+        <v>93</v>
+      </c>
+      <c r="E29" t="s">
+        <v>94</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>95</v>
+      </c>
+      <c r="B30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30">
+        <v>60000030</v>
+      </c>
+      <c r="D30" t="s">
+        <v>89</v>
+      </c>
+      <c r="E30" t="s">
+        <v>96</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>97</v>
+      </c>
+      <c r="B31" t="s">
+        <v>98</v>
+      </c>
+      <c r="C31">
+        <v>60000031</v>
+      </c>
+      <c r="D31"/>
+      <c r="E31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>99</v>
+      </c>
+      <c r="B32" t="s">
+        <v>100</v>
+      </c>
+      <c r="C32">
+        <v>60000032</v>
+      </c>
+      <c r="D32" t="s">
+        <v>101</v>
+      </c>
+      <c r="E32" t="s">
+        <v>102</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>103</v>
+      </c>
+      <c r="B33" t="s">
+        <v>104</v>
+      </c>
+      <c r="C33">
+        <v>60000033</v>
+      </c>
+      <c r="D33" t="s">
+        <v>105</v>
+      </c>
+      <c r="E33" t="s">
+        <v>106</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>107</v>
+      </c>
+      <c r="B34" t="s">
+        <v>108</v>
+      </c>
+      <c r="C34">
+        <v>60000034</v>
+      </c>
+      <c r="D34" t="s">
+        <v>109</v>
+      </c>
+      <c r="E34" t="s">
+        <v>110</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>111</v>
+      </c>
+      <c r="B35" t="s">
+        <v>112</v>
+      </c>
+      <c r="C35">
+        <v>60000035</v>
+      </c>
+      <c r="D35"/>
+      <c r="E35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>113</v>
+      </c>
+      <c r="B36" t="s">
+        <v>112</v>
+      </c>
+      <c r="C36">
+        <v>60000036</v>
+      </c>
+      <c r="D36"/>
+      <c r="E36" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>114</v>
+      </c>
+      <c r="B37" t="s">
+        <v>115</v>
+      </c>
+      <c r="C37">
+        <v>60000037</v>
+      </c>
+      <c r="D37" t="s">
+        <v>101</v>
+      </c>
+      <c r="E37" t="s">
+        <v>116</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>117</v>
+      </c>
+      <c r="B38" t="s">
+        <v>118</v>
+      </c>
+      <c r="C38">
+        <v>60000038</v>
+      </c>
+      <c r="D38" t="s">
+        <v>119</v>
+      </c>
+      <c r="E38" t="s">
+        <v>120</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>121</v>
+      </c>
+      <c r="B39" t="s">
+        <v>122</v>
+      </c>
+      <c r="C39">
+        <v>60000039</v>
+      </c>
+      <c r="D39" t="s">
+        <v>123</v>
+      </c>
+      <c r="E39" t="s">
+        <v>124</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>125</v>
+      </c>
+      <c r="B40" t="s">
+        <v>126</v>
+      </c>
+      <c r="C40">
+        <v>60000040</v>
+      </c>
+      <c r="D40"/>
+      <c r="E40" t="s">
+        <v>127</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>128</v>
+      </c>
+      <c r="B41" t="s">
+        <v>129</v>
+      </c>
+      <c r="C41">
+        <v>60000041</v>
+      </c>
+      <c r="D41"/>
+      <c r="E41" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>130</v>
+      </c>
+      <c r="B42" t="s">
+        <v>131</v>
+      </c>
+      <c r="C42">
+        <v>60000042</v>
+      </c>
+      <c r="D42" t="s">
+        <v>132</v>
+      </c>
+      <c r="E42" t="s">
+        <v>133</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>134</v>
+      </c>
+      <c r="B43" t="s">
+        <v>135</v>
+      </c>
+      <c r="C43">
+        <v>60000043</v>
+      </c>
+      <c r="D43" t="s">
+        <v>132</v>
+      </c>
+      <c r="E43" t="s">
+        <v>136</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>137</v>
+      </c>
+      <c r="B44" t="s">
+        <v>135</v>
+      </c>
+      <c r="C44">
+        <v>60000044</v>
+      </c>
+      <c r="D44" t="s">
+        <v>132</v>
+      </c>
+      <c r="E44" t="s">
+        <v>138</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>139</v>
+      </c>
+      <c r="B45" t="s">
+        <v>140</v>
+      </c>
+      <c r="C45">
+        <v>60000045</v>
+      </c>
+      <c r="D45" t="s">
+        <v>141</v>
+      </c>
+      <c r="E45" t="s">
+        <v>142</v>
+      </c>
+      <c r="F45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>143</v>
+      </c>
+      <c r="B46" t="s">
+        <v>144</v>
+      </c>
+      <c r="C46">
+        <v>60000046</v>
+      </c>
+      <c r="D46" t="s">
+        <v>145</v>
+      </c>
+      <c r="E46" t="s">
+        <v>146</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>147</v>
+      </c>
+      <c r="B47" t="s">
+        <v>148</v>
+      </c>
+      <c r="C47">
+        <v>60000047</v>
+      </c>
+      <c r="D47" t="s">
+        <v>149</v>
+      </c>
+      <c r="E47" t="s">
+        <v>150</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
+        <v>151</v>
+      </c>
+      <c r="B48" t="s">
+        <v>152</v>
+      </c>
+      <c r="C48">
+        <v>60000048</v>
+      </c>
+      <c r="D48"/>
+      <c r="E48" t="s">
+        <v>153</v>
+      </c>
+      <c r="F48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>154</v>
+      </c>
+      <c r="B49" t="s">
+        <v>155</v>
+      </c>
+      <c r="C49">
+        <v>60000049</v>
+      </c>
+      <c r="D49" t="s">
+        <v>156</v>
+      </c>
+      <c r="E49" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>157</v>
+      </c>
+      <c r="B50" t="s">
+        <v>158</v>
+      </c>
+      <c r="C50">
+        <v>60000050</v>
+      </c>
+      <c r="D50" t="s">
+        <v>159</v>
+      </c>
+      <c r="E50" t="s">
+        <v>160</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>161</v>
+      </c>
+      <c r="B51" t="s">
+        <v>43</v>
+      </c>
+      <c r="C51">
+        <v>60000051</v>
+      </c>
+      <c r="D51" t="s">
+        <v>44</v>
+      </c>
+      <c r="E51" t="s">
+        <v>162</v>
+      </c>
+      <c r="F51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
+        <v>163</v>
+      </c>
+      <c r="B52" t="s">
+        <v>164</v>
+      </c>
+      <c r="C52">
+        <v>60000052</v>
+      </c>
+      <c r="D52" t="s">
+        <v>165</v>
+      </c>
+      <c r="E52" t="s">
+        <v>166</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" t="s">
+        <v>167</v>
+      </c>
+      <c r="B53" t="s">
+        <v>168</v>
+      </c>
+      <c r="C53">
+        <v>60000053</v>
+      </c>
+      <c r="D53" t="s">
+        <v>165</v>
+      </c>
+      <c r="E53" t="s">
+        <v>169</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" t="s">
+        <v>170</v>
+      </c>
+      <c r="B54" t="s">
+        <v>171</v>
+      </c>
+      <c r="C54">
+        <v>60000054</v>
+      </c>
+      <c r="D54" t="s">
+        <v>165</v>
+      </c>
+      <c r="E54" t="s">
+        <v>172</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" t="s">
+        <v>173</v>
+      </c>
+      <c r="B55" t="s">
+        <v>174</v>
+      </c>
+      <c r="C55">
+        <v>60000055</v>
+      </c>
+      <c r="D55"/>
+      <c r="E55" t="s">
+        <v>175</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
+        <v>176</v>
+      </c>
+      <c r="B56" t="s">
+        <v>177</v>
+      </c>
+      <c r="C56">
+        <v>60000056</v>
+      </c>
+      <c r="D56" t="s">
+        <v>178</v>
+      </c>
+      <c r="E56" t="s">
+        <v>179</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
+        <v>180</v>
+      </c>
+      <c r="B57" t="s">
+        <v>181</v>
+      </c>
+      <c r="C57">
+        <v>60000057</v>
+      </c>
+      <c r="D57" t="s">
+        <v>182</v>
+      </c>
+      <c r="E57" t="s">
+        <v>183</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" t="s">
+        <v>184</v>
+      </c>
+      <c r="B58" t="s">
+        <v>185</v>
+      </c>
+      <c r="C58">
+        <v>60000058</v>
+      </c>
+      <c r="D58" t="s">
+        <v>186</v>
+      </c>
+      <c r="E58" t="s">
+        <v>187</v>
+      </c>
+      <c r="F58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" t="s">
+        <v>188</v>
+      </c>
+      <c r="B59" t="s">
+        <v>75</v>
+      </c>
+      <c r="C59">
+        <v>60000059</v>
+      </c>
+      <c r="D59" t="s">
+        <v>189</v>
+      </c>
+      <c r="E59" t="s">
+        <v>190</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" t="s">
+        <v>191</v>
+      </c>
+      <c r="B60" t="s">
+        <v>192</v>
+      </c>
+      <c r="C60">
+        <v>60000060</v>
+      </c>
+      <c r="D60" t="s">
+        <v>193</v>
+      </c>
+      <c r="E60" t="s">
+        <v>194</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" t="s">
+        <v>195</v>
+      </c>
+      <c r="B61" t="s">
+        <v>192</v>
+      </c>
+      <c r="C61">
+        <v>60000061</v>
+      </c>
+      <c r="D61" t="s">
+        <v>193</v>
+      </c>
+      <c r="E61" t="s">
+        <v>196</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" t="s">
+        <v>197</v>
+      </c>
+      <c r="B62" t="s">
+        <v>198</v>
+      </c>
+      <c r="C62">
+        <v>60000062</v>
+      </c>
+      <c r="D62"/>
+      <c r="E62" t="s">
+        <v>9</v>
+      </c>
+      <c r="F62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" t="s">
+        <v>199</v>
+      </c>
+      <c r="B63"/>
+      <c r="C63">
+        <v>60000063</v>
+      </c>
+      <c r="D63"/>
+      <c r="E63" t="s">
+        <v>9</v>
+      </c>
+      <c r="F63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" t="s">
+        <v>200</v>
+      </c>
+      <c r="B64" t="s">
+        <v>201</v>
+      </c>
+      <c r="C64">
+        <v>60000064</v>
+      </c>
+      <c r="D64" t="s">
+        <v>202</v>
+      </c>
+      <c r="E64" t="s">
+        <v>203</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" t="s">
+        <v>204</v>
+      </c>
+      <c r="B65" t="s">
+        <v>205</v>
+      </c>
+      <c r="C65">
+        <v>60000065</v>
+      </c>
+      <c r="D65" t="s">
+        <v>202</v>
+      </c>
+      <c r="E65" t="s">
+        <v>206</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" t="s">
+        <v>207</v>
+      </c>
+      <c r="B66" t="s">
+        <v>205</v>
+      </c>
+      <c r="C66">
+        <v>60000066</v>
+      </c>
+      <c r="D66" t="s">
+        <v>202</v>
+      </c>
+      <c r="E66" t="s">
+        <v>208</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" t="s">
+        <v>82</v>
+      </c>
+      <c r="B67" t="s">
+        <v>209</v>
+      </c>
+      <c r="C67">
+        <v>60000067</v>
+      </c>
+      <c r="D67"/>
+      <c r="E67" t="s">
+        <v>9</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" t="s">
+        <v>210</v>
+      </c>
+      <c r="B68" t="s">
+        <v>211</v>
+      </c>
+      <c r="C68">
+        <v>60000068</v>
+      </c>
+      <c r="D68"/>
+      <c r="E68" t="s">
+        <v>9</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" t="s">
+        <v>212</v>
+      </c>
+      <c r="B69" t="s">
+        <v>213</v>
+      </c>
+      <c r="C69">
+        <v>60000069</v>
+      </c>
+      <c r="D69" t="s">
+        <v>214</v>
+      </c>
+      <c r="E69" t="s">
+        <v>215</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" t="s">
+        <v>216</v>
+      </c>
+      <c r="B70"/>
+      <c r="C70">
+        <v>60000070</v>
+      </c>
+      <c r="D70"/>
+      <c r="E70" t="s">
+        <v>9</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" t="s">
+        <v>217</v>
+      </c>
+      <c r="B71"/>
+      <c r="C71" t="s">
+        <v>218</v>
+      </c>
+      <c r="D71"/>
+      <c r="E71" t="s">
+        <v>9</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" t="s">
+        <v>217</v>
+      </c>
+      <c r="B72" t="s">
+        <v>219</v>
+      </c>
+      <c r="C72">
+        <v>60000079</v>
+      </c>
+      <c r="D72"/>
+      <c r="E72" t="s">
+        <v>9</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" t="s">
+        <v>220</v>
+      </c>
+      <c r="B73" t="s">
+        <v>221</v>
+      </c>
+      <c r="C73">
+        <v>60000082</v>
+      </c>
+      <c r="D73" t="s">
+        <v>222</v>
+      </c>
+      <c r="E73" t="s">
+        <v>223</v>
+      </c>
+      <c r="F73">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <autoFilter ref="A1:F73"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
